--- a/11223.xlsx
+++ b/11223.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0AC95F-A1C3-4CD2-B8A3-4516E4B161FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,8 +19,55 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+  <si>
+    <t>I_год</t>
+  </si>
+  <si>
+    <t>I_средмес</t>
+  </si>
+  <si>
+    <t>h_средмес</t>
+  </si>
+  <si>
+    <t>r_реальное</t>
+  </si>
+  <si>
+    <t>S(T)</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>h_ежеквартал</t>
+  </si>
+  <si>
+    <t>I_ежеквартал</t>
+  </si>
+  <si>
+    <t>I_ежемесячное</t>
+  </si>
+  <si>
+    <t>I_годовая</t>
+  </si>
+  <si>
+    <t>r_ном</t>
+  </si>
+  <si>
+    <t>r_номинал</t>
+  </si>
+  <si>
+    <t>I_квартал</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000000000000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,11 +97,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +115,187 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247113</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{525DD2B3-F6D4-453B-8069-D870780D3AC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="190500"/>
+          <a:ext cx="4295238" cy="885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>294732</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C9FE6E5-B25C-45A6-94BD-371898BA1F10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="2095500"/>
+          <a:ext cx="4342857" cy="1047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323304</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2368AF8B-30AC-46D3-90A7-75B8528A52D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="4191000"/>
+          <a:ext cx="4371429" cy="876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>559735</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73E5F288-2ED9-4CB2-8D84-68B01F27CA74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7239000"/>
+          <a:ext cx="7655860" cy="1162050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +560,180 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B8:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f>1.727/1.1</f>
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f>POWER(C8,1/12)</f>
+        <v>1.0383050613296732</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <f>C9-1</f>
+        <v>3.8305061329673151E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1">
+        <f>( 0.3*1/2+0.35*1/4+0.4*1/4)/POWER(1+0.06,4)</f>
+        <v>0.2673316113428319</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1">
+        <f>20*D19</f>
+        <v>5.346632226856638</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1">
+        <f>15/100</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <f>B30*(POWER($D$36,1/B30)-1)</f>
+        <v>0.64499999999999869</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ref="C31:C32" si="0">B31*(POWER($D$36,1/B31)-1)</f>
+        <v>0.59999999999999876</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>0.57227463805976697</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="1">
+        <f>D28+1</f>
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1">
+        <f>POWER(D33,1/3)</f>
+        <v>1.0476895531716472</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="1">
+        <f>POWER(D34,12)</f>
+        <v>1.7490062499999981</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <f>POWER(1+C48/C47,C47)</f>
+        <v>1.6010322185676817</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50">
+        <f>POWER(C49,1/4)</f>
+        <v>1.1248640000000001</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>